--- a/biology/Botanique/Bertiera_guianensis/Bertiera_guianensis.xlsx
+++ b/biology/Botanique/Bertiera_guianensis/Bertiera_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera guianensis est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Bertiera.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bertiera guianensis est un arbuste ou un petit arbre atteignant jusqu'à 6 m de haut.
 Les feuilles mesurent 9-20 × 2-2,5 cm, avec des pétioles longs de 3-5 mm et des stipules de 5-10 mm.
@@ -519,10 +533,10 @@
 Les pédoncules sont longs de 2,5-7 cm.
 Les limbes du calice sont longs d'environ 1 mm.
 Les corolles comportent des tubes longs de 3-4 mm, et des lobes de 2-3 mm.
-Les fruits mesurent 3,5-5 mm de diamètre[6].
+Les fruits mesurent 3,5-5 mm de diamètre.
 En 1953, Lemée en propose la description suivante de Palicourea guianensis :
 « B. guianensis Aubl. Arbrisseau ou petit arbre à rameaux pubescents ; feuilles de 0,10-0,18 sur 0,03-0,07, elliptiques ou oblongues acuminées, à base aiguë, glabrescentes en dessus, pubescentes en dessous surtout sur les nervures, avec 6-8 paires de nervures, stipules pubescentes acuminées, longues de 7-12 mm. ; panicules avec ramifications inférieures subopposées, les supérieures, alternes; fleurs petites sessiles, calice glabre ou poilu à segments triangulaires ou ovales persistants, corolle blanche, à tube de 0,03-0,04, glabre en dehors, très poilu en dedans ainsi que le dessus des lobes, ceux-ci aigus ; baie bleue globuleuse à diamètre de 4-5 mm., 10-côtelée à sec, à 2 loges, graines jaunes. - (Aublet). »
-— Albert Lemée, 1953[7].</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertiera guianensis est présent du Mexique au Brésil, en passant par lAmérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertiera guianensis est présent du Mexique au Brésil, en passant par lAmérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertiera guianensis est présente dans les forêts de plaine à feuilles persistantes, à 100-300 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertiera guianensis est présente dans les forêts de plaine à feuilles persistantes, à 100-300 m d'altitude.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a proposé le protologue suivant[8] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a proposé le protologue suivant : 
 « BERTIERA (Guianenſis.) (Tabula 69.)
 Frutex ſex aut ſeptem - pedalis, ramoſus -, ramis &amp; ramuſculis oppoſitis, nodoſis, tomentoſis. Folia oppoſita, ovata, acuminata, ſupernè viridia, infernè tomentoſa, cinerea, brevi petiolata, adnexa. Stipulæ amplexicaules, bilobæ 5 lobis oblongis, acutis, oppofitis. Flores racemoſi, terminates, oppoſiti vel alterni, ad baſim ſquamulà ſolitaria, aut duabus ſquamulis muniti. Corolla alba.
 Florebat &amp; nudum ferebat Junio.
